--- a/biology/Zoologie/Hirondelle_de_la_mer_Rouge/Hirondelle_de_la_mer_Rouge.xlsx
+++ b/biology/Zoologie/Hirondelle_de_la_mer_Rouge/Hirondelle_de_la_mer_Rouge.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Petrochelidon perdita
 L'Hirondelle de la mer Rouge (Petrochelidon perdita) est une espèce de passereaux de la famille des Hirundinidae, considérée comme endémique du Soudan mais qui pourrait vivre aussi sur les côtes d'Arabie saoudite et dans la vallée du Grand Rift, en Éthiopie.
